--- a/templates/chammetadata_reportingformat_template.xlsx
+++ b/templates/chammetadata_reportingformat_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penn529/Documents/GitHub/ess-dive-community/essdive-soil-respiration/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d3x290/Dropbox/Documents/Work/Current/ESS-DIVE COSORE/essdive-soil-respiration/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D247FF78-5C38-6841-BC81-78CB1F1DBEEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA16FCA8-7D41-0344-8224-92BD3D1D5415}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33500" yWindow="40" windowWidth="28800" windowHeight="16440" xr2:uid="{A3A4D55E-8452-EA4C-96C7-D53981DE98F4}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{A3A4D55E-8452-EA4C-96C7-D53981DE98F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Treatment</t>
-  </si>
-  <si>
-    <t>Longtitude</t>
   </si>
   <si>
     <t>Latitude</t>
@@ -245,13 +242,16 @@
   <si>
     <t>Additional information about this chamber</t>
   </si>
+  <si>
+    <t>Longitude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -440,9 +440,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -771,7 +771,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,37 +807,37 @@
         <v>22</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>4</v>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>10</v>
@@ -860,10 +860,10 @@
         <v>20</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>12</v>
@@ -881,16 +881,16 @@
         <v>19</v>
       </c>
       <c r="M2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -933,10 +933,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="18" t="b">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="3">
         <v>-76.554136999999997</v>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O4" s="9">
         <v>3</v>
@@ -983,19 +983,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3">
         <v>4.2089179999999997</v>
@@ -1013,10 +1013,10 @@
         <v>3</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O5" s="9">
         <v>5</v>

--- a/templates/chammetadata_reportingformat_template.xlsx
+++ b/templates/chammetadata_reportingformat_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penn529/Documents/GitHub/ess-dive-community/essdive-soil-respiration/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D247FF78-5C38-6841-BC81-78CB1F1DBEEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A461550-34ED-9A42-B9AD-10D37C7137E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33500" yWindow="40" windowWidth="28800" windowHeight="16440" xr2:uid="{A3A4D55E-8452-EA4C-96C7-D53981DE98F4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{A3A4D55E-8452-EA4C-96C7-D53981DE98F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Treatment</t>
-  </si>
-  <si>
-    <t>Longtitude</t>
   </si>
   <si>
     <t>Latitude</t>
@@ -245,13 +242,16 @@
   <si>
     <t>Additional information about this chamber</t>
   </si>
+  <si>
+    <t>Longitude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -440,9 +440,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -771,7 +771,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,37 +807,37 @@
         <v>22</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>4</v>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>10</v>
@@ -860,10 +860,10 @@
         <v>20</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>12</v>
@@ -881,16 +881,16 @@
         <v>19</v>
       </c>
       <c r="M2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -933,10 +933,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="18" t="b">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="3">
         <v>-76.554136999999997</v>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O4" s="9">
         <v>3</v>
@@ -983,19 +983,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3">
         <v>4.2089179999999997</v>
@@ -1013,10 +1013,10 @@
         <v>3</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O5" s="9">
         <v>5</v>

--- a/templates/chammetadata_reportingformat_template.xlsx
+++ b/templates/chammetadata_reportingformat_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penn529/Documents/GitHub/ess-dive-community/essdive-soil-respiration/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A461550-34ED-9A42-B9AD-10D37C7137E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30671F6-E5B8-174E-B847-4E78E3966BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{A3A4D55E-8452-EA4C-96C7-D53981DE98F4}"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="28800" windowHeight="16440" xr2:uid="{A3A4D55E-8452-EA4C-96C7-D53981DE98F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t xml:space="preserve">Columns </t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Obs_Count</t>
+  </si>
+  <si>
+    <t>Observation count representing how many measurement cycles were completed and used to calculate the flux</t>
   </si>
 </sst>
 </file>
@@ -768,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE7BFC6-1D16-D048-B48C-D35E8DD9B438}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,16 +790,16 @@
     <col min="8" max="8" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="16" max="16" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -828,22 +834,25 @@
         <v>26</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="204" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -878,22 +887,25 @@
         <v>17</v>
       </c>
       <c r="L2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -915,17 +927,18 @@
       <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="11"/>
+      <c r="P3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -959,23 +972,26 @@
       <c r="K4" s="3">
         <v>4073.5</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
+      <c r="M4" s="9">
         <v>7.5</v>
       </c>
-      <c r="M4" s="9" t="b">
+      <c r="N4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="O4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="9">
+      <c r="P4" s="9">
         <v>3</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1009,84 +1025,87 @@
       <c r="K5" s="24">
         <v>3600</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="24">
         <v>3</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="23">
+        <v>3</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="O5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="9">
+      <c r="P5" s="9">
         <v>5</v>
       </c>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="4"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
